--- a/statistiche/RandomForestCounterfactuals/MO.xlsx
+++ b/statistiche/RandomForestCounterfactuals/MO.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,38 +755,38 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,16 +1023,16 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1157,16 +1157,16 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>1</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>1</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1601,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1659,25 +1659,25 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
